--- a/table/xlsx/stock_ozon.xlsx
+++ b/table/xlsx/stock_ozon.xlsx
@@ -498,27 +498,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 44.871214, 39.179640. Смотреть на картах</t>
+          <t>44.871214, 39.179640. Смотреть на картах</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Фактический адрес: 385200, Республика Адыгея, Теучежский район, хутор Кочкин, ул. Логистическая, д. 3, стр. 1</t>
+          <t>385200, Республика Адыгея, Теучежский район, хутор Кочкин, ул. Логистическая, д. 3, стр. 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 385200, Республика Адыгея, Теучежский район, хутор Кочкин, Логистическая улица, дом 3, стр. 1</t>
+          <t>ООО «Интернет Решения», 385200, Республика Адыгея, Теучежский район, хутор Кочкин, Логистическая улица, дом 3, стр. 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 010045001</t>
+          <t>7704217370 / 010045001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GLN: 4610063718840</t>
+          <t>4610063718840</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>GUID: 59a176a1-f30e-478f-a7ae-e9b907caeb88</t>
+          <t>59a176a1-f30e-478f-a7ae-e9b907caeb88</t>
         </is>
       </c>
     </row>
@@ -545,32 +545,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['ВОЛГОГРАД_МРФЦ_КРОССДОКИНГ', 'ВОЛГОГРАД_МРФЦ']</t>
+          <t>ВОЛГОГРАД_МРФЦ_КРОССДОКИНГ, ВОЛГОГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 48.768093, 44.417221 Смотреть на картах</t>
+          <t>48.768093, 44.417221 Смотреть на картах</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Фактический адрес: 400075, Россия, Волгоградская область, г. Волгоград, рабочий поселок Гумрак, тер. Таймырский проезд, д.2</t>
+          <t>400075, Россия, Волгоградская область, г. Волгоград, рабочий поселок Гумрак, тер. Таймырский проезд, д.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения»,  Россия, Волгоградская область, г. Волгоград, рабочий поселок Гумрак, тер. Таймырский проезд, д.2</t>
+          <t>ООО «Интернет Решения»,  Россия, Волгоградская область, г. Волгоград, рабочий поселок Гумрак, тер. Таймырский проезд, д.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 344345005</t>
+          <t>7704217370 / 344345005</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GLN: 4610063718864</t>
+          <t>4610063718864</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GUID: f95becc3-065c-4958-a1be-72e5dc23a810</t>
+          <t>f95becc3-065c-4958-a1be-72e5dc23a810</t>
         </is>
       </c>
     </row>
@@ -597,32 +597,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['ВОРОНЕЖ_МРФЦ', 'ВОРОНЕЖ_МРФЦ_Кроссдокинг']</t>
+          <t>ВОРОНЕЖ_МРФЦ, ВОРОНЕЖ_МРФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 51.807712, 39.214180 Смотреть на картах</t>
+          <t>51.807712, 39.214180 Смотреть на картах</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Фактический адрес: 396002, Российская Федерация, Воронежская обл., Рамонский район, с/п Айдаровское, тер. Промышленная, ул. 1-я Промышленная зона, 6б</t>
+          <t>396002, Российская Федерация, Воронежская обл., Рамонский район, с/п Айдаровское, тер. Промышленная, ул. 1-я Промышленная зона, 6б</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения»,  396002, Россия, Воронежская обл., Рамонский м.р-н, Айдаровское с.п., тер.Промышленная, ул 1-я Промышленная зона, 6б</t>
+          <t>ООО «Интернет Решения»,  396002, Россия, Воронежская обл., Рамонский м.р-н, Айдаровское с.п., тер.Промышленная, ул 1-я Промышленная зона, 6б</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 366645006</t>
+          <t>7704217370 / 366645006</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GLN: 4610063718925</t>
+          <t>4610063718925</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>GUID: 03aef9ee-f1cd-4f02-a762-be70bfc8b54f</t>
+          <t>03aef9ee-f1cd-4f02-a762-be70bfc8b54f</t>
         </is>
       </c>
     </row>
@@ -654,27 +654,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 51.633402, 39.321452 Смотреть на картах</t>
+          <t>51.633402, 39.321452 Смотреть на картах</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Фактический адрес: 396335, Воронежская область, муниципальный район Новоусманский, сельское поселение Отрадненское, село Александровка, улица Акварельная, здание 1</t>
+          <t>396335, Воронежская область, муниципальный район Новоусманский, сельское поселение Отрадненское, село Александровка, улица Акварельная, здание 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 396335, Воронежская область, муниципальный район Новоусманский, сельское поселение Отрадненское, село Александровка, улица Акварельная, здание 1</t>
+          <t>ООО «Интернет Решения», 396335, Воронежская область, муниципальный район Новоусманский, сельское поселение Отрадненское, село Александровка, улица Акварельная, здание 1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 366345004</t>
+          <t>7704217370 / 366345004</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GLN: 4610063718710</t>
+          <t>4610063718710</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -701,32 +701,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['ГРИВНО_РФЦ_КРОССДОКИНГ', 'ГРИВНО_РФЦ']</t>
+          <t>ГРИВНО_РФЦ_КРОССДОКИНГ, ГРИВНО_РФЦ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.357404, 37.571884. Смотреть на картах</t>
+          <t>55.357404, 37.571884. Смотреть на картах</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Фактический адрес: 142184, Московская область, городской округ Подольск, деревня Гривно, территория промышленного парка Гривно, д. 1, к. 13</t>
+          <t>142184, Московская область, городской округ Подольск, деревня Гривно, территория промышленного парка Гривно, д. 1, к. 13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 142184, Российская Федерация, Московская область, городской округ Подольск, деревня Гривно, территория промышленного парка Гривно, д. 1, к. 13</t>
+          <t>ООО «Интернет Решения», 142184, Российская Федерация, Московская область, городской округ Подольск, деревня Гривно, территория промышленного парка Гривно, д. 1, к. 13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 507445011</t>
+          <t>7704217370 / 507445011</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GLN: 4610063718833</t>
+          <t>4610063718833</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>GUID: ac9ebd91-cc16-43dd-86ec-216b30686d9</t>
+          <t>ac9ebd91-cc16-43dd-86ec-216b30686d9</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['ДАВЫДОВСКОЕ_РФЦ_НЕГАБАРИТ_КРОССДОКИНГ', 'ДАВЫДОВСКОЕ_РФЦ_НЕГАБАРИТ']</t>
+          <t>ДАВЫДОВСКОЕ_РФЦ_НЕГАБАРИТ_КРОССДОКИНГ, ДАВЫДОВСКОЕ_РФЦ_НЕГАБАРИТ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Фактический адрес: ​Московская обл., г. Истра, д. Давыдовское, ул. Дачная, стр. 3</t>
+          <t>​Московская обл., г. Истра, д. Давыдовское, ул. Дачная, стр. 3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Московская обл., г. Истра, д. Давыдовское, ул. Дачная, стр. 3</t>
+          <t>ООО «Интернет Решения», Московская обл., г. Истра, д. Давыдовское, ул. Дачная, стр. 3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 501745009</t>
+          <t>7704217370 / 501745009</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Екатеринбург_РФЦ_НОВЫЙ', 'ЕКАТЕРИНБУРГ_РФЦ_Кроссдокинг']</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ, ЕКАТЕРИНБУРГ_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.755615, 60.774011. Смотреть на картах</t>
+          <t>56.755615, 60.774011. Смотреть на картах</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Екатеринбург, территория Логопарк Кольцовский, стр. 15</t>
+          <t>г. Екатеринбург, территория Логопарк Кольцовский, стр. 15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 620025, Свердловская область, г. Екатеринбург, территория Логопарк Кольцовский, стр. 15</t>
+          <t>ООО «Интернет Решения», 620025, Свердловская область, г. Екатеринбург, территория Логопарк Кольцовский, стр. 15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 668545001</t>
+          <t>7704217370 / 668545001</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>GLN: 4607196261893</t>
+          <t>4607196261893</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>GUID: abf2c590-205b-4092-8714-f9c374134938</t>
+          <t>abf2c590-205b-4092-8714-f9c374134938</t>
         </is>
       </c>
     </row>
@@ -857,32 +857,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['ЖУКОВСКИЙ_РФЦ_КРОССДОКИНГ', 'ЖУКОВСКИЙ_РФЦ']</t>
+          <t>ЖУКОВСКИЙ_РФЦ_КРОССДОКИНГ, ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.569752, 38.068367. Смотреть на картах</t>
+          <t>55.569752, 38.068367. Смотреть на картах</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Фактический адрес: 140182, Московская область, г. Жуковский, районн Замоскворечье, д. 457, стр. 5</t>
+          <t>140182, Московская область, г. Жуковский, районн Замоскворечье, д. 457, стр. 5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 140182, Россия, Московская область, г.о. Жуковский, г. Жуковский, район Замоскворечье, д. 457, стр. 5</t>
+          <t>ООО «Интернет Решения», 140182, Россия, Московская область, г.о. Жуковский, г. Жуковский, район Замоскворечье, д. 457, стр. 5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504045009</t>
+          <t>7704217370 / 504045009</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>GLN: 4610063718888</t>
+          <t>4610063718888</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>GUID: 6ec4b69f-16ba-4008-b1fe-8de7acd1950b</t>
+          <t>6ec4b69f-16ba-4008-b1fe-8de7acd1950b</t>
         </is>
       </c>
     </row>
@@ -909,32 +909,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Казань_РФЦ_НОВЫЙ', 'КАЗАНЬ_РФЦ_Кроссдокинг']</t>
+          <t>Казань_РФЦ_НОВЫЙ, КАЗАНЬ_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.854507, 48.849047. Смотреть на картах</t>
+          <t>55.854507, 48.849047. Смотреть на картах</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Фактический адрес: Республика Татарстан, г. Зеленодольск, промышленный парк Зеленодольск, зд. 19</t>
+          <t>Республика Татарстан, г. Зеленодольск, промышленный парк Зеленодольск, зд. 19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Озон Волга», 422527 Россия, Республика Татарстан, Зеленодольский р-н, г. Зеленодольск, Промышленная площадка «Зеленодольск», Промышленный район, здание 19</t>
+          <t>ООО «Озон Волга», 422527 Россия, Республика Татарстан, Зеленодольский р-н, г. Зеленодольск, Промышленная площадка «Зеленодольск», Промышленный район, здание 19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 1648050123 / 164845001</t>
+          <t>1648050123 / 164845001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GLN: 4607196246227</t>
+          <t>4607196246227</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>GUID: e64d4a8b-9fd1-40cc-91a9-eeec07e1143a</t>
+          <t>e64d4a8b-9fd1-40cc-91a9-eeec07e1143a</t>
         </is>
       </c>
     </row>
@@ -966,27 +966,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 54.665864, 20.471896. Смотреть на картах</t>
+          <t>54.665864, 20.471896. Смотреть на картах</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Калининград, ул. Печатная, д. 56</t>
+          <t>г. Калининград, ул. Печатная, д. 56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Озон Калининград», г. Калининград, ул. Печатная, д. 56</t>
+          <t>ООО «Озон Калининград», г. Калининград, ул. Печатная, д. 56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 3906407538 / 390601001</t>
+          <t>3906407538 / 390601001</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>GLN: 4610063718895</t>
+          <t>4610063718895</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>GUID: 7238cd53-5fec-4af0-9f57-bf12813c7ed7</t>
+          <t>7238cd53-5fec-4af0-9f57-bf12813c7ed7</t>
         </is>
       </c>
     </row>
@@ -1013,32 +1013,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['КРАСНОЯРСК_МРФЦ', 'Красноярск_МРФЦ_Кроссдокинг']</t>
+          <t>КРАСНОЯРСК_МРФЦ, Красноярск_МРФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.103758, 93.070763. Смотреть на картах</t>
+          <t>56.103758, 93.070763. Смотреть на картах</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Красноярск, ул. Пограничников, д. 9И</t>
+          <t>г. Красноярск, ул. Пограничников, д. 9И</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 660111, Красноярский край, г. Красноярск, ул. Пограничников, д. 9и</t>
+          <t>ООО «Интернет Решения», 660111, Красноярский край, г. Красноярск, ул. Пограничников, д. 9и</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 246545004</t>
+          <t>7704217370 / 246545004</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GLN: 4607196284137</t>
+          <t>4607196284137</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>GUID: 7b7a0a96-9eb5-4d91-b5b2-5a9efed04833</t>
+          <t>7b7a0a96-9eb5-4d91-b5b2-5a9efed04833</t>
         </is>
       </c>
     </row>
@@ -1065,32 +1065,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['НИЖНИЙ_НОВГОРОД_РФЦ', 'НИЖНИЙ_НОВГОРОД_РФЦ_Кроссдокинг']</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ, НИЖНИЙ_НОВГОРОД_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.299372, 43.615007. Смотреть на картах</t>
+          <t>56.299372, 43.615007. Смотреть на картах</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Нижегородская область, г. Дзержинск, ш. Игумновское, д. 5Г</t>
+          <t>Россия, Нижегородская область, г. Дзержинск, ш. Игумновское, д. 5Г</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Российская Федерация, Нижегородская область, г. Дзержинск, ш. Игумновское, д. 5Г</t>
+          <t>ООО «Интернет Решения», Российская Федерация, Нижегородская область, г. Дзержинск, ш. Игумновское, д. 5Г</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 524945005</t>
+          <t>7704217370 / 524945005</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GLN: 4610063718956</t>
+          <t>4610063718956</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GUID: 4058a96d-4c6e-4b8b-8fa5-27fffadbb107</t>
+          <t>4058a96d-4c6e-4b8b-8fa5-27fffadbb107</t>
         </is>
       </c>
     </row>
@@ -1117,32 +1117,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['НОВОРОССИЙСК_МРФЦ_Кроссдокинг', 'НОВОРОССИЙСК_МРФЦ']</t>
+          <t>НОВОРОССИЙСК_МРФЦ_Кроссдокинг, НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 44.840945, 37.574539. Смотреть на картах</t>
+          <t>44.840945, 37.574539. Смотреть на картах</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Фактический адрес: Российская Федерация, Краснодарский край, г. Новороссийск, ст. Раевская, тер. Автодорога Юровка-Раевская-Новороссийск, 38-й км, д. 4.</t>
+          <t>Российская Федерация, Краснодарский край, г. Новороссийск, ст. Раевская, тер. Автодорога Юровка-Раевская-Новороссийск, 38-й км, д. 4.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Российская Федерация, Краснодарский край, г. Новороссийск, ст. Раевская, тер. Автодорога Юровка-Раевская-Новороссийск, 38-й км, д. 4.</t>
+          <t>ООО «Интернет Решения», Российская Федерация, Краснодарский край, г. Новороссийск, ст. Раевская, тер. Автодорога Юровка-Раевская-Новороссийск, 38-й км, д. 4.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 231545010</t>
+          <t>7704217370 / 231545010</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GLN: 4610063718949</t>
+          <t>4610063718949</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>GUID: f4ce4d19-c351-439c-b269-a60ea63b03c7</t>
+          <t>f4ce4d19-c351-439c-b269-a60ea63b03c7</t>
         </is>
       </c>
     </row>
@@ -1169,32 +1169,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['Новосибирск_РФЦ_НОВЫЙ', 'НОВОСИБИРСК_РФЦ_Кроссдокинг']</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ, НОВОСИБИРСК_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.004917, 82.555067. Смотреть на картах</t>
+          <t>55.004917, 82.555067. Смотреть на картах</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Фактический адрес: Новосибирская область, городской округ Обь, населённый пункт 3307 километр, ул. 3307 км, д. 16, к. 8</t>
+          <t>Новосибирская область, городской округ Обь, населённый пункт 3307 километр, ул. 3307 км, д. 16, к. 8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 633100 Новосибирская область, Новосибирский муниципальный район, сельское поселение Толмачевский сельсовет, 3307 км платформа, д. 16, корпус 8</t>
+          <t>ООО «Интернет Решения», 633100 Новосибирская область, Новосибирский муниципальный район, сельское поселение Толмачевский сельсовет, 3307 км платформа, д. 16, корпус 8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 543345001</t>
+          <t>7704217370 / 543345001</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GLN:  4607196244414</t>
+          <t xml:space="preserve"> 4607196244414</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>GUID: c57fdd16-419f-4022-82e3-b19e6c6f87a7</t>
+          <t>c57fdd16-419f-4022-82e3-b19e6c6f87a7</t>
         </is>
       </c>
     </row>
@@ -1226,27 +1226,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.829690, 38.248607. Смотреть на картах</t>
+          <t>55.829690, 38.248607. Смотреть на картах</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Фактический адрес: 142440, Российская Федерация, Московская область, Богородский городской округ, рабочий поселок Обухово, территория Обухово-Парк, дом 2, строение 1</t>
+          <t>142440, Российская Федерация, Московская область, Богородский городской округ, рабочий поселок Обухово, территория Обухово-Парк, дом 2, строение 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 142440, Российская Федерация, Московская область, Богородский городской округ, рабочий поселок Обухово, территория Обухово-Парк, дом 2, строение 1</t>
+          <t>ООО «Интернет Решения», 142440, Российская Федерация, Московская область, Богородский городской округ, рабочий поселок Обухово, территория Обухово-Парк, дом 2, строение 1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 503145006</t>
+          <t>7704217370 / 503145006</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>GLN: 4610063718796</t>
+          <t>4610063718796</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['ПАВЛО_СЛОБОДСКОЕ_РЦ_Кроссдокинг', 'ПАВЛО_СЛОБОДСКОЕ_РФЦ_НЕГАБАРИТ']</t>
+          <t>ПАВЛО_СЛОБОДСКОЕ_РЦ_Кроссдокинг, ПАВЛО_СЛОБОДСКОЕ_РФЦ_НЕГАБАРИТ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1283,22 +1283,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Фактический адрес: 143581, Московская обл., Истринский район, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
+          <t>143581, Московская обл., Истринский район, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 143581, Россия, Московская область, г. Истра, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
+          <t>ООО «Интернет Решения», 143581, Россия, Московская область, г. Истра, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 501745011</t>
+          <t>7704217370 / 501745011</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>GLN: 4640072246812</t>
+          <t>4640072246812</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>GUID: 075779de-eb20-46c8-b75d-3e4e8571e2c4</t>
+          <t>075779de-eb20-46c8-b75d-3e4e8571e2c4</t>
         </is>
       </c>
     </row>
@@ -1330,27 +1330,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.833351, 36.875255. Смотреть на картах</t>
+          <t>55.833351, 36.875255. Смотреть на картах</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Московская обл, г. Истра, с. Петровское, территория МПСК Ориентир-Запад, зд. 1А</t>
+          <t>Россия, Московская обл, г. Истра, с. Петровское, территория МПСК Ориентир-Запад, зд. 1А</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2:ООО «Интернет Решения» 143541, Россия, Московская обл, Истра г., Петровское с., МПСК Ориентир-Запад тер, зд. 1А</t>
+          <t>ОО «Интернет Решения» 143541, Россия, Московская обл, Истра г., Петровское с., МПСК Ориентир-Запад тер, зд. 1А</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 501745007</t>
+          <t>7704217370 / 501745007</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>GLN: 4607196270796</t>
+          <t>4607196270796</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>GUID: 4d39ae1e-6721-4213-9d4e-6580be748cef</t>
+          <t>4d39ae1e-6721-4213-9d4e-6580be748cef</t>
         </is>
       </c>
     </row>
@@ -1382,27 +1382,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.041607, 37.885996. Смотреть на картах</t>
+          <t>56.041607, 37.885996. Смотреть на картах</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Московская область, Пушкинский городской округ, г. Пушкино, Ярославское шоссе, д. 216.</t>
+          <t>Россия, Московская область, Пушкинский городской округ, г. Пушкино, Ярославское шоссе, д. 216.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141202, Россия, Московская область, Пушкинский городской округ, г. Пушкино, шоссе Ярославское, д. 216.</t>
+          <t>ООО «Интернет Решения», 141202, Россия, Московская область, Пушкинский городской округ, г. Пушкино, шоссе Ярославское, д. 216.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 503845013</t>
+          <t>7704217370 / 503845013</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>GLN: 4610063718932</t>
+          <t>4610063718932</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>GUID: 04b4a941-fa62-4e55-925b-a13e0529bb31</t>
+          <t>04b4a941-fa62-4e55-925b-a13e0529bb31</t>
         </is>
       </c>
     </row>
@@ -1434,27 +1434,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.041607, 37.885996. Смотреть на картах</t>
+          <t>56.041607, 37.885996. Смотреть на картах</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Московская область, г.о. Пушкинский, г. Пушкино, Ярославское шоссе, д. 218</t>
+          <t>Россия, Московская область, г.о. Пушкинский, г. Пушкино, Ярославское шоссе, д. 218</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141202, Россия, Московская область, г.о. Пушкинский, г. Пушкино, Ярославское шоссе, д. 218</t>
+          <t>ООО «Интернет Решения», 141202, Россия, Московская область, г.о. Пушкинский, г. Пушкино, Ярославское шоссе, д. 218</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 503845014</t>
+          <t>7704217370 / 503845014</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Р/С:  40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t xml:space="preserve"> 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>GLN: 4610063718918</t>
+          <t>4610063718918</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>GUID: 6b1e9278-b859-45f7-89cd-63d015302c2c</t>
+          <t>6b1e9278-b859-45f7-89cd-63d015302c2c</t>
         </is>
       </c>
     </row>
@@ -1481,32 +1481,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['Ростов_на_Дону_РФЦ', 'РОСТОВ-НА-ДОНУ_РФЦ_Кроссдокинг']</t>
+          <t>Ростов_на_Дону_РФЦ, РОСТОВ-НА-ДОНУ_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 47.125328, 39.896027. Смотреть на картах</t>
+          <t>47.125328, 39.896027. Смотреть на картах</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Фактический адрес: 346703, Ростовская область, Аксайский район, хутор Ленина, ул. Логопарк д. 5</t>
+          <t>346703, Ростовская область, Аксайский район, хутор Ленина, ул. Логопарк д. 5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 346703 Ростовская область, Аксайский район, х. Ленина, ул. Логопарк, д. 5</t>
+          <t>ООО «Интернет Решения», 346703 Ростовская область, Аксайский район, х. Ленина, ул. Логопарк, д. 5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 610245001</t>
+          <t>7704217370 / 610245001</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>GLN: 4607196240768</t>
+          <t>4607196240768</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>GUID: 8ac74fc6-3b20-4730-aaea-460aed2ff78e</t>
+          <t>8ac74fc6-3b20-4730-aaea-460aed2ff78e</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['САМАРА _РФЦ_Кроссдокинг', 'САМАРА _РФЦ']</t>
+          <t>САМАРА _РФЦ_Кроссдокинг, САМАРА _РФЦ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 52.960285, 49.744254. Смотреть на картах</t>
+          <t>52.960285, 49.744254. Смотреть на картах</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Фактический адрес: 446100, Россия, Самарская область, г. Чапаевск, ул. Индустриальная, зд. 3, Индустриальный парк Чапаевск</t>
+          <t>446100, Россия, Самарская область, г. Чапаевск, ул. Индустриальная, зд. 3, Индустриальный парк Чапаевск</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Озон Поволжье», 446100, Россия, Самарская область, г. Чапаевск, ул. Индустриальная, зд. 3</t>
+          <t>ООО «Озон Поволжье», 446100, Россия, Самарская область, г. Чапаевск, ул. Индустриальная, зд. 3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада:  6330094512 / 633045001</t>
+          <t xml:space="preserve"> 6330094512 / 633045001</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Р/С: 40702810900000190640 в банке АО «РАЙФФАЙЗЕНБАНК», БИК 044525700, к/с 30101810200000000700</t>
+          <t>40702810900000190640 в банке АО «РАЙФФАЙЗЕНБАНК», БИК 044525700, к/с 30101810200000000700</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>GLN: 4610063718970</t>
+          <t>4610063718970</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>GUID: 89dce473-7bd7-4f98-819d-7a383e03e0c6</t>
+          <t>89dce473-7bd7-4f98-819d-7a383e03e0c6</t>
         </is>
       </c>
     </row>
@@ -1585,32 +1585,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['САНКТ-ПЕТЕРБУРГ_РФЦ_Кроссдокинг', 'Санкт_Петербург_РФЦ']</t>
+          <t>САНКТ-ПЕТЕРБУРГ_РФЦ_Кроссдокинг, Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 59.814295, 30.478282. Смотреть на картах</t>
+          <t>59.814295, 30.478282. Смотреть на картах</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Санкт-Петербург, внутригородское муниципальное образование Санкт-Петербурга п. Петро-Славянка, ул. Софийская, д. 118, к. 4, стр. 1</t>
+          <t>г. Санкт-Петербург, внутригородское муниципальное образование Санкт-Петербурга п. Петро-Славянка, ул. Софийская, д. 118, к. 4, стр. 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 196642 Санкт-Петербург, внутригородское муниципальное образование Санкт-Петербурга поселок Петро-Славянка, Софийская улица, дом 118, корпус 4, строение 1</t>
+          <t>ООО «Интернет Решения», 196642 Санкт-Петербург, внутригородское муниципальное образование Санкт-Петербурга поселок Петро-Славянка, Софийская улица, дом 118, корпус 4, строение 1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 781745003</t>
+          <t>7704217370 / 781745003</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>GLN: 4607196242335</t>
+          <t>4607196242335</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>GUID: 9ece539f-8528-4840-b320-67c4035e81b5</t>
+          <t>9ece539f-8528-4840-b320-67c4035e81b5</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1642,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 55.495859, 38.164505. Смотреть на картах</t>
+          <t>55.495859, 38.164505. Смотреть на картах</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Фактический адрес: Российская Федерация, Московская область, Раменский городской округ, квартал 4/218, стр. 2/1 (территория Логистического технопарка «Софьино»)</t>
+          <t>Российская Федерация, Московская область, Раменский городской округ, квартал 4/218, стр. 2/1 (территория Логистического технопарка «Софьино»)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 140126, Россия, Московская область, Раменский г.о., квартал 4/218, стр. 2/1</t>
+          <t>ООО «Интернет Решения», 140126, Россия, Московская область, Раменский г.о., квартал 4/218, стр. 2/1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504045010</t>
+          <t>7704217370 / 504045010</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>GLN: 4610063718857</t>
+          <t>4610063718857</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>GUID: 7d64f8cc-2594-4449-aed9-b1e11dd4dbb9</t>
+          <t>7d64f8cc-2594-4449-aed9-b1e11dd4dbb9</t>
         </is>
       </c>
     </row>
@@ -1694,27 +1694,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах:  60.079010, 30.395133. Смотреть на картах</t>
+          <t xml:space="preserve"> 60.079010, 30.395133. Смотреть на картах</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
+          <t>Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 188660, Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
+          <t>ООО «Интернет Решения», 188660, Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 470645003</t>
+          <t>7704217370 / 470645003</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>GLN: 4610063718901</t>
+          <t>4610063718901</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>GUID: a4337345-aa32-46f3-9420-c6ec9b336d7f</t>
+          <t>a4337345-aa32-46f3-9420-c6ec9b336d7f</t>
         </is>
       </c>
     </row>
@@ -1746,27 +1746,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах:  60.079010, 30.395133. Смотреть на картах</t>
+          <t xml:space="preserve"> 60.079010, 30.395133. Смотреть на картах</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
+          <t>Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 188660, Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
+          <t>ООО «Интернет Решения», 188660, Россия, Ленинградская область, Всеволожский район, с.п. Бугровское, тер. Бугры Массив, ул. Шоссейная, зд. 50, к. 1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 010045002</t>
+          <t>7704217370 / 010045002</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке АО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>GLN: 4610063718727</t>
+          <t>4610063718727</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1798,22 +1798,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.798202, 35.932370. Смотреть на картах</t>
+          <t>56.798202, 35.932370. Смотреть на картах</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Фактический адрес: 170540, Тверская область, Калининский р-н, промышленная зона Боровлево-2, комплекс 1А</t>
+          <t>170540, Тверская область, Калининский р-н, промышленная зона Боровлево-2, комплекс 1А</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: Филиал ООО «Интернет Решения» в Тверской области, 170540, Тверская область, Калининский р-н, промышленная зона Боровлёво-2, комплекс 1А</t>
+          <t>Филиал ООО «Интернет Решения» в Тверской области, 170540, Тверская область, Калининский р-н, промышленная зона Боровлёво-2, комплекс 1А</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 694943001</t>
+          <t>7704217370 / 694943001</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>GLN: 4607196175190</t>
+          <t>4607196175190</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>GUID: 40c668a9-258a-4a9e-93d6-3bd47148ba20</t>
+          <t>40c668a9-258a-4a9e-93d6-3bd47148ba20</t>
         </is>
       </c>
     </row>
@@ -1850,27 +1850,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 48.394148, 135.152038. Смотреть на картах</t>
+          <t>48.394148, 135.152038. Смотреть на картах</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Фактический адрес: 680015, г. Хабаровск, ул. Суворова, д. 82А, корпус 4</t>
+          <t>680015, г. Хабаровск, ул. Суворова, д. 82А, корпус 4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения» 680015 Хабаровский край, Хабаровск г., Суворова ул., 82а</t>
+          <t>ООО «Интернет Решения» 680015 Хабаровский край, Хабаровск г., Суворова ул., 82а</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 272345005</t>
+          <t>7704217370 / 272345005</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1880,12 +1880,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GLN: 4607196265327</t>
+          <t>4607196265327</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>GUID: 1a7d326a-0bd4-434e-b311-fbeff23c22e4</t>
+          <t>1a7d326a-0bd4-434e-b311-fbeff23c22e4</t>
         </is>
       </c>
     </row>
@@ -1897,32 +1897,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['ХАБАРОВСК_2_РФЦ_КРОССДОКИНГ', 'ХАБАРОВСК_2_РФЦ']</t>
+          <t>ХАБАРОВСК_2_РФЦ_КРОССДОКИНГ, ХАБАРОВСК_2_РФЦ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 48.447846, 135.157075. Смотреть на картах</t>
+          <t>48.447846, 135.157075. Смотреть на картах</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Фактический адрес: Хабаровский край, г.о. «Город Хабаровск», г. Хабаровск, улица Донская, д. 2а/14</t>
+          <t>Хабаровский край, г.о. «Город Хабаровск», г. Хабаровск, улица Донская, д. 2а/14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «ОЗОН ХАБАРОВСК», 680052, Хабаровский край, город Хабаровск г.о., г. Хабаровск, ул. Донская, д. 2а/14</t>
+          <t>ООО «ОЗОН ХАБАРОВСК», 680052, Хабаровский край, город Хабаровск г.о., г. Хабаровск, ул. Донская, д. 2а/14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 2700011611 / 270045001</t>
+          <t>2700011611 / 270045001</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Р/С: 40702810700000142285 в банке «ГУ Банка России по ЦФО», БИК 044525823 , к/с 30101810200000000823</t>
+          <t>40702810700000142285 в банке «ГУ Банка России по ЦФО», БИК 044525823 , к/с 30101810200000000823</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>GLN: 4610063718758</t>
+          <t>4610063718758</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1949,32 +1949,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['ХОРУГВИНО_РФЦ', 'ХОРУГВИНО_РФЦ_Кроссдокинг']</t>
+          <t>ХОРУГВИНО_РФЦ, ХОРУГВИНО_РФЦ_Кроссдокинг</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.126664, 37.209414. Смотреть на картах</t>
+          <t>56.126664, 37.209414. Смотреть на картах</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Фактический адрес: 141533, Московская обл., Солнечногорский р-н, с. п. Пешковское, дер. Хоругвино, стр. 32/2</t>
+          <t>141533, Московская обл., Солнечногорский р-н, с. п. Пешковское, дер. Хоругвино, стр. 32/2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141533 Московская область, Солнечногорский р-н, д. Хоругвино, 32/2</t>
+          <t>ООО «Интернет Решения», 141533 Московская область, Солнечногорский р-н, д. Хоругвино, 32/2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504445002</t>
+          <t>7704217370 / 504445002</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>GLN: 4607196209376</t>
+          <t>4607196209376</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>GUID: 2cd15b49-8cac-45ea-bad5-1169a01c4c36</t>
+          <t>2cd15b49-8cac-45ea-bad5-1169a01c4c36</t>
         </is>
       </c>
     </row>
@@ -2001,32 +2001,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['ХОРУГВИНО_РФЦ_Негабарит_Кроссдокинг', 'Хоругвино_НЕГАБАРИТ']</t>
+          <t>ХОРУГВИНО_РФЦ_Негабарит_Кроссдокинг, Хоругвино_НЕГАБАРИТ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 56.126664, 37.209414. Смотреть на картах</t>
+          <t>56.126664, 37.209414. Смотреть на картах</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Фактический адрес: 141533, Московская обл., Солнечногорский р-н, с. п. Пешковское, дер. Хоругвино, стр. 32/2</t>
+          <t>141533, Московская обл., Солнечногорский р-н, с. п. Пешковское, дер. Хоругвино, стр. 32/2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141533 Московская область, Солнечногорский р-н, д. Хоругвино, 32/2</t>
+          <t>ООО «Интернет Решения», 141533 Московская область, Солнечногорский р-н, д. Хоругвино, 32/2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504445002</t>
+          <t>7704217370 / 504445002</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>GLN: 4607196209376</t>
+          <t>4607196209376</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>GUID: 2cd15b49-8cac-45ea-bad5-1169a01c4c36</t>
+          <t>2cd15b49-8cac-45ea-bad5-1169a01c4c36</t>
         </is>
       </c>
     </row>
@@ -2058,27 +2058,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 59.798385, 30.451271. Смотреть на картах</t>
+          <t>59.798385, 30.451271. Смотреть на картах</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Фактический адрес: 196158, Россия, г. Санкт-Петербург, поселок Шушары, Московское шоссе, д. 143, стр. 1.</t>
+          <t>196158, Россия, г. Санкт-Петербург, поселок Шушары, Московское шоссе, д. 143, стр. 1.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 196158, Россия, г. Санкт-Петербург, пос. Шушары, внутренняя территория города, Московское шоссе, д. 143, стр. 1</t>
+          <t>ООО «Интернет Решения», 196158, Россия, г. Санкт-Петербург, пос. Шушары, внутренняя территория города, Московское шоссе, д. 143, стр. 1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 781745005</t>
+          <t>7704217370 / 781745005</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>GLN: 4610063718802</t>
+          <t>4610063718802</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>GUID: fa051b5f-deea-4aaa-9b60-df25f352ea61</t>
+          <t>fa051b5f-deea-4aaa-9b60-df25f352ea61</t>
         </is>
       </c>
     </row>
@@ -2110,27 +2110,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Координаты на Яндекс.Картах: 59.795777, 30.450445. Смотреть на картах</t>
+          <t>59.795777, 30.450445. Смотреть на картах</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Санкт-Петербург, пос. Шушары, ш. Московское, д. 141, корп. 2, стр. 1</t>
+          <t>г. Санкт-Петербург, пос. Шушары, ш. Московское, д. 141, корп. 2, стр. 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Санкт-Петербург, пос. Шушары, ш. Московское, д. 141, корп. 2, стр. 1</t>
+          <t>ООО «Интернет Решения», г. Санкт-Петербург, пос. Шушары, ш. Московское, д. 141, корп. 2, стр. 1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 781045015</t>
+          <t>7704217370 / 781045015</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>GLN:  4610063718680</t>
+          <t xml:space="preserve"> 4610063718680</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2167,22 +2167,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Фактический адрес: 143581, Московская обл., Истринский район, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
+          <t>143581, Московская обл., Истринский район, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 143581, Россия, Московская область, г. Истра, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
+          <t>ООО «Интернет Решения», 143581, Россия, Московская область, г. Истра, с. Павловская Слобода, территория квартала 0050343, зд. 2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 501745011</t>
+          <t>7704217370 / 501745011</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>GLN: 4640072246812</t>
+          <t>4640072246812</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>GUID: 075779de-eb20-46c8-b75d-3e4e8571e2c4</t>
+          <t>075779de-eb20-46c8-b75d-3e4e8571e2c4</t>
         </is>
       </c>
     </row>
@@ -2219,22 +2219,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Фактический адрес: 121471, г. Москва, ул. Рябиновая, д. 51, стр. 2</t>
+          <t>121471, г. Москва, ул. Рябиновая, д. 51, стр. 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: 121471, г. Москва, ул. Рябиновая, д. 51, стр. 2</t>
+          <t>121471, г. Москва, ул. Рябиновая, д. 51, стр. 2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545462</t>
+          <t>7704217370 / 771545462</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Р/С: 40702810100002400756 в банке АО «РАЙФФАЙЗЕНБАНК», БИК 44525700, к/с 30101810200000000700</t>
+          <t>40702810100002400756 в банке АО «РАЙФФАЙЗЕНБАНК», БИК 44525700, к/с 30101810200000000700</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>GLN: 4610063719748</t>
+          <t>4610063719748</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>GUID: 6154e453-7384-42ab-8afd-97a331367de3</t>
+          <t>6154e453-7384-42ab-8afd-97a331367de3</t>
         </is>
       </c>
     </row>
@@ -2271,22 +2271,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Армавир , ул. Лавриненко 1, строения 6, 7, 8</t>
+          <t>г. Армавир , ул. Лавриненко 1, строения 6, 7, 8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Армавир , ул. Лавриненко 1, строения 6, 7, 8</t>
+          <t>ООО «Интернет Решения», г. Армавир , ул. Лавриненко 1, строения 6, 7, 8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 237245004</t>
+          <t>7704217370 / 237245004</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2323,22 +2323,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Фактический адрес: Астраханская область, Наримановский район с. Солянка, ул. Ермака д.1</t>
+          <t>Астраханская область, Наримановский район с. Солянка, ул. Ермака д.1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Астраханская область, Наримановский район с. Солянка, ул. Ермака д.1</t>
+          <t>ООО «Интернет Решения», Астраханская область, Наримановский район с. Солянка, ул. Ермака д.1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 300045002</t>
+          <t>7704217370 / 300045002</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2375,22 +2375,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Фактический адрес: Алтайский край, г. Барнаул, ул. Дальняя, д. 24/2</t>
+          <t>Алтайский край, г. Барнаул, ул. Дальняя, д. 24/2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 656922, Алтайский край, г. Барнаул, ул. Дальняя, д. 24/2</t>
+          <t>ООО «Интернет Решения», 656922, Алтайский край, г. Барнаул, ул. Дальняя, д. 24/2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 222245007</t>
+          <t>7704217370 / 222245007</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Фактический адрес: 308013, обл. Белгородская, г. Белгород, ул. Коммунальная, д. 18</t>
+          <t>308013, обл. Белгородская, г. Белгород, ул. Коммунальная, д. 18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 308009, Белгородская область, г. Белгород, ул. Коммунальная, д. 18</t>
+          <t>ООО «Интернет Решения», 308009, Белгородская область, г. Белгород, ул. Коммунальная, д. 18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 312345006</t>
+          <t>7704217370 / 312345006</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2479,22 +2479,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Фактический адрес: Брянская область, Брянский район, Добруньское сельское поселение, с. Октябрьское, д. 8/1</t>
+          <t>Брянская область, Брянский район, Добруньское сельское поселение, с. Октябрьское, д. 8/1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Брянская, Брянский район, Добруньское сельское поселение, с. Октябрьское, д. 8/1</t>
+          <t>ООО «Интернет Решения», обл. Брянская, Брянский район, Добруньское сельское поселение, с. Октябрьское, д. 8/1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 324545001</t>
+          <t>7704217370 / 324545001</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2531,22 +2531,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Фактический адрес: 173507, обл. Новгородская, р-н Новгородский, д. Сырково, ул. Пригородная, дом 45А, литер Д</t>
+          <t>173507, обл. Новгородская, р-н Новгородский, д. Сырково, ул. Пригородная, дом 45А, литер Д</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 173507, обл. Новгородская, Новгородский р-н, д. Сырково, ул. Пригородная, стр. 45А</t>
+          <t>ООО «Интернет Решения», 173507, обл. Новгородская, Новгородский р-н, д. Сырково, ул. Пригородная, стр. 45А</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 531045002</t>
+          <t>7704217370 / 531045002</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2583,22 +2583,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Фактический адрес: 600033, Владимирская обл., г. Владимир, ул. Мостостроевская, д. 12</t>
+          <t>600033, Владимирская обл., г. Владимир, ул. Мостостроевская, д. 12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 600033, Владимирская обл., г. Владимир, ул. Мостостроевская, д. 12</t>
+          <t>ООО «Интернет Решения», 600033, Владимирская обл., г. Владимир, ул. Мостостроевская, д. 12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 330045001</t>
+          <t>7704217370 / 330045001</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2635,22 +2635,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Фактический адрес: 400127, Волгоград, Волгоградская обл., ул. Пржевальского, 20</t>
+          <t>400127, Волгоград, Волгоградская обл., ул. Пржевальского, 20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 400127, Волгоград, Волгоградская обл., ул. Пржевальского, д. 20</t>
+          <t>ООО «Интернет Решения», 400127, Волгоград, Волгоградская обл., ул. Пржевальского, д. 20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 345945002</t>
+          <t>7704217370 / 345945002</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2687,22 +2687,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Фактический адрес: ​ ​160014, обл. Вологодская, г. Вологда, ул. Мудрова, д. 30</t>
+          <t>​ ​160014, обл. Вологодская, г. Вологда, ул. Мудрова, д. 30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 160014, обл. Вологодская, г. Вологда, ул. Мудрова, д. 30</t>
+          <t>ООО «Интернет Решения», 160014, обл. Вологодская, г. Вологда, ул. Мудрова, д. 30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 352545005</t>
+          <t>7704217370 / 352545005</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2739,22 +2739,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Фактический адрес: Челябинская обл., г. Златоуст ул. Парковый проезд 5</t>
+          <t>Челябинская обл., г. Златоуст ул. Парковый проезд 5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Челябинская обл., г. Златоуст ул. Парковый проезд 5</t>
+          <t>ООО «Интернет Решения», Челябинская обл., г. Златоуст ул. Парковый проезд 5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 740445002</t>
+          <t>7704217370 / 740445002</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2791,22 +2791,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Ивановская, р-н Ивановский, д. Игнатово, ул. Окружная, д. 17</t>
+          <t>обл. Ивановская, р-н Ивановский, д. Игнатово, ул. Окружная, д. 17</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Ивановская, р-н Ивановский, д. Игнатово, ул. Окружная, д. 17</t>
+          <t>ООО «Интернет Решения», обл. Ивановская, р-н Ивановский, д. Игнатово, ул. Окружная, д. 17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 370045001</t>
+          <t>7704217370 / 370045001</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2843,22 +2843,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Фактический адрес:  Удмуртская Республика, г. Ижевск, ул. Пойма, д. 79Е</t>
+          <t xml:space="preserve"> Удмуртская Республика, г. Ижевск, ул. Пойма, д. 79Е</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Удмуртская Республика, г. Ижевск, ул. Пойма, д. 79</t>
+          <t>ООО «Интернет Решения», Удмуртская Республика, г. Ижевск, ул. Пойма, д. 79</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 183245002</t>
+          <t>7704217370 / 183245002</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2895,22 +2895,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Фактический адрес: ​ 664053, обл. Иркутская, г. Иркутск, ул. Розы Люксембург, д. 218</t>
+          <t>​ 664053, обл. Иркутская, г. Иркутск, ул. Розы Люксембург, д. 218</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 64053, обл. Иркутская, г. Иркутск, ул. Розы Люксембург, д. 218</t>
+          <t>ООО «Интернет Решения», 64053, обл. Иркутская, г. Иркутск, ул. Розы Люксембург, д. 218</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 381245002</t>
+          <t>7704217370 / 381245002</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2947,22 +2947,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Фактический адрес: 422624 Россия, Респ. Татарстан, р-н Лаишевский, с. Столбище, ул. Советская, д. 271. Ворота 26D/27D</t>
+          <t>422624 Россия, Респ. Татарстан, р-н Лаишевский, с. Столбище, ул. Советская, д. 271. Ворота 26D/27D</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 422624, Респ. Татарстан, р-н Лаишевский, с. Столбище, ул. Советская, д. 271</t>
+          <t>ООО «Интернет Решения», 422624, Респ. Татарстан, р-н Лаишевский, с. Столбище, ул. Советская, д. 271</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 168445001</t>
+          <t>7704217370 / 168445001</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2999,22 +2999,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Калуга, 2-й Академический проезд, д. 12</t>
+          <t>г. Калуга, 2-й Академический проезд, д. 12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения»,  г. Калуга, 2-й Академический проезд, д. 12</t>
+          <t>ООО «Интернет Решения»,  г. Калуга, 2-й Академический проезд, д. 12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 400045001</t>
+          <t>7704217370 / 400045001</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3051,22 +3051,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Фактический адрес: ​650517, обл. Кемеровская область — Кузбасс, р-н Кемеровский, пос. Металлплощадка, ул. Воскресенская, д. 5/3</t>
+          <t>​650517, обл. Кемеровская область — Кузбасс, р-н Кемеровский, пос. Металлплощадка, ул. Воскресенская, д. 5/3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», ​650517, обл. Кемеровская область — Кузбасс, р-н Кемеровский, пос. Металлплощадка, ул. Воскресенская, д. 5/3</t>
+          <t>ООО «Интернет Решения», ​650517, обл. Кемеровская область — Кузбасс, р-н Кемеровский, пос. Металлплощадка, ул. Воскресенская, д. 5/3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 425045001</t>
+          <t>7704217370 / 425045001</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Киров, ул. Щорса, д. 70А/1</t>
+          <t>г. Киров, ул. Щорса, д. 70А/1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 610044, обл. Кировская, г. Киров, ул. Луганская, д. 57А</t>
+          <t>ООО «Интернет Решения», 610044, обл. Кировская, г. Киров, ул. Луганская, д. 57А</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 434545005</t>
+          <t>7704217370 / 434545005</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3155,22 +3155,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Фактический адрес: Краснодарский край, г. Краснодар. х. Октябрьский, ул. Подсолнечная, д. 44А</t>
+          <t>Краснодарский край, г. Краснодар. х. Октябрьский, ул. Подсолнечная, д. 44А</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 350032, Краснодарский край, г. Краснодар. х. Октябрьский, ул. Подсолнечная, д. 44А</t>
+          <t>ООО «Интернет Решения», 350032, Краснодарский край, г. Краснодар. х. Октябрьский, ул. Подсолнечная, д. 44А</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 231145001</t>
+          <t>7704217370 / 231145001</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3207,22 +3207,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Фактический адрес: Курганская обл., г. Курган, ул. Омская, д.179я</t>
+          <t>Курганская обл., г. Курган, ул. Омская, д.179я</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 640027 обл. Курганская, г. Курган, ул. Омская, строение 179я</t>
+          <t>ООО «Интернет Решения», 640027 обл. Курганская, г. Курган, ул. Омская, строение 179я</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 450145003</t>
+          <t>7704217370 / 450145003</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3259,22 +3259,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Фактический адрес: 305040, Курская обл., г. Курск, ул. 50 лет Октября, д. 179</t>
+          <t>305040, Курская обл., г. Курск, ул. 50 лет Октября, д. 179</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 305040, обл. Курская, г. Курск, ул. 50 лет Октября, д. 179</t>
+          <t>ООО «Интернет Решения», 305040, обл. Курская, г. Курск, ул. 50 лет Октября, д. 179</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 463245010</t>
+          <t>7704217370 / 463245010</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3311,22 +3311,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Липецк, улица Гагарина, 100Б</t>
+          <t>г. Липецк, улица Гагарина, 100Б</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Липецк, улица Гагарина, 100Б</t>
+          <t>ООО «Интернет Решения», г. Липецк, улица Гагарина, 100Б</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 480045001</t>
+          <t>7704217370 / 480045001</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3363,22 +3363,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Фактический адрес: 398037, обл. Липецкая, г. Липецк, пр-д Трубный, 1А</t>
+          <t>398037, обл. Липецкая, г. Липецк, пр-д Трубный, 1А</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 398037, обл. Липецкая, г. Липецк, пр-д Трубный, 1А</t>
+          <t>ООО «Интернет Решения», 398037, обл. Липецкая, г. Липецк, пр-д Трубный, 1А</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 482545001</t>
+          <t>7704217370 / 482545001</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3415,22 +3415,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Фактический адрес: Челябинская область, г. Магнитогорск, ул. Красноармейская, д. 41/1</t>
+          <t>Челябинская область, г. Магнитогорск, ул. Красноармейская, д. 41/1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Челябинская область, г. Магнитогорск, ул. Красноармейская, д. 41/1</t>
+          <t>ООО «Интернет Решения», Челябинская область, г. Магнитогорск, ул. Красноармейская, д. 41/1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 745545003</t>
+          <t>7704217370 / 745545003</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3467,22 +3467,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Минеральные Воды, ул. 1-я Промышленная, д. 43, (Промзона КУЛОН ЮГРОСС)</t>
+          <t>г. Минеральные Воды, ул. 1-я Промышленная, д. 43, (Промзона КУЛОН ЮГРОСС)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Минеральные Воды, ул. 1-я Промышленная, д. 43</t>
+          <t>ООО «Интернет Решения», г. Минеральные Воды, ул. 1-я Промышленная, д. 43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 263045001</t>
+          <t>7704217370 / 263045001</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3519,22 +3519,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Фактический адрес: 115516 Россия, г. Москва, Кавказский бульвар, д. 57, стр. 4</t>
+          <t>115516 Россия, г. Москва, Кавказский бульвар, д. 57, стр. 4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 115516 Россия, г. Москва, Кавказский бульвар, д. 57, стр. 4</t>
+          <t>ООО «Интернет Решения», 115516 Россия, г. Москва, Кавказский бульвар, д. 57, стр. 4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545492</t>
+          <t>7704217370 / 771545492</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Фактический адрес: 127282 Россия, г. Москва, Чермянская улица, д. 4, стр. 1</t>
+          <t>127282 Россия, г. Москва, Чермянская улица, д. 4, стр. 1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 127282 Россия, г. Москва, Чермянская улица, д. 4, стр. 1</t>
+          <t>ООО «Интернет Решения», 127282 Россия, г. Москва, Чермянская улица, д. 4, стр. 1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545490</t>
+          <t>7704217370 / 771545490</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Москва, пос. Московский, д. Саларьево, вл. 7 стр.1</t>
+          <t>г. Москва, пос. Московский, д. Саларьево, вл. 7 стр.1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Москва, пос. Московский, д. Саларьево, вл. 7</t>
+          <t>ООО «Интернет Решения», г. Москва, пос. Московский, д. Саларьево, вл. 7</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545473</t>
+          <t>7704217370 / 771545473</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3675,22 +3675,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Москва, пос. Московский, д. Саларьево, владение 7 стр. 1</t>
+          <t>г. Москва, пос. Московский, д. Саларьево, владение 7 стр. 1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Москва, пос. Московский, д. Саларьево, владение 7 стр. 1</t>
+          <t>ООО «Интернет Решения», г. Москва, пос. Московский, д. Саларьево, владение 7 стр. 1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545473</t>
+          <t>7704217370 / 771545473</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3727,22 +3727,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Москва, ул. Скотопрогонная, д. 35, стр. 3</t>
+          <t>г. Москва, ул. Скотопрогонная, д. 35, стр. 3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 109029, г. Москва, ул. Скотопрогонная, д. 35, стр. 3</t>
+          <t>ООО «Интернет Решения», 109029, г. Москва, ул. Скотопрогонная, д. 35, стр. 3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545082</t>
+          <t>7704217370 / 771545082</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3779,22 +3779,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Москва, 2-я Лыковская улица, 63с5</t>
+          <t>г. Москва, 2-я Лыковская улица, 63с5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2:  ООО «Интернет Решения», г. Москва, 2-я Лыковская улица, 63с5</t>
+          <t xml:space="preserve"> ООО «Интернет Решения», г. Москва, 2-я Лыковская улица, 63с5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545497</t>
+          <t>7704217370 / 771545497</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3831,22 +3831,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Московская, р-н Раменский, Быково, ул. Аэропортовская, д. 14, корп. Т</t>
+          <t>обл. Московская, р-н Раменский, Быково, ул. Аэропортовская, д. 14, корп. Т</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Московская, р-н Раменский, Быково, ул. Аэропортовская, д. 14, корп. Т</t>
+          <t>ООО «Интернет Решения», обл. Московская, р-н Раменский, Быково, ул. Аэропортовская, д. 14, корп. Т</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504045011</t>
+          <t>7704217370 / 504045011</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3883,22 +3883,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Москва, поселение Марушкинское, деревня Шарапово, Придорожная улица, к5</t>
+          <t>г. Москва, поселение Марушкинское, деревня Шарапово, Придорожная улица, к5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Москва, поселение Марушкинское, деревня Шарапово, Придорожная улица, к5</t>
+          <t>ООО «Интернет Решения», г. Москва, поселение Марушкинское, деревня Шарапово, Придорожная улица, к5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 771545493</t>
+          <t>7704217370 / 771545493</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3935,22 +3935,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Фактический адрес: 142155 Россия, обл. Московская, г. Подольск, промышленная зона Львовский, ул. Московская, д. 69, стр. 5</t>
+          <t>142155 Россия, обл. Московская, г. Подольск, промышленная зона Львовский, ул. Московская, д. 69, стр. 5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 142155 Россия, обл. Московская, г. Подольск, промышленная зона Львовский, ул. Московская, д. 69, стр. 5</t>
+          <t>ООО «Интернет Решения», 142155 Россия, обл. Московская, г. Подольск, промышленная зона Львовский, ул. Московская, д. 69, стр. 5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 507445010</t>
+          <t>7704217370 / 507445010</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Московская, г. Ногинск, пос. Затишье, промышленная зона Технопарк Успенский, д. 5, стр. 1</t>
+          <t>обл. Московская, г. Ногинск, пос. Затишье, промышленная зона Технопарк Успенский, д. 5, стр. 1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Московская, г. Ногинск, пос. Затишье, промышленная зона Технопарк Успенский, д. 5, стр. 1</t>
+          <t>ООО «Интернет Решения», обл. Московская, г. Ногинск, пос. Затишье, промышленная зона Технопарк Успенский, д. 5, стр. 1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 503145005</t>
+          <t>7704217370 / 503145005</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4039,22 +4039,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Фактический адрес: 141401, обл. Московская, г. Химки, пр-д Коммунальный, 30А, стр. 1</t>
+          <t>141401, обл. Московская, г. Химки, пр-д Коммунальный, 30А, стр. 1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141401, обл. Московская, г. Химки, пр-д Коммунальный, 30А, стр. 1</t>
+          <t>ООО «Интернет Решения», 141401, обл. Московская, г. Химки, пр-д Коммунальный, 30А, стр. 1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504745013</t>
+          <t>7704217370 / 504745013</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4091,22 +4091,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Московская, г. Подольск, д. Борисовка, промышленная зона ПромТехАльянс, д. 1, стр. 2</t>
+          <t>обл. Московская, г. Подольск, д. Борисовка, промышленная зона ПромТехАльянс, д. 1, стр. 2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Московская, г. Подольск, д. Борисовка, промышленная зона ПромТехАльянс, д. 1, стр. 1</t>
+          <t>ООО «Интернет Решения», обл. Московская, г. Подольск, д. Борисовка, промышленная зона ПромТехАльянс, д. 1, стр. 1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 507445007</t>
+          <t>7704217370 / 507445007</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4143,22 +4143,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Фактический адрес: Московская обл., Солнечногорский р-н, дер. Черная Грязь, ул. Сходненская, стр. 1,</t>
+          <t>Московская обл., Солнечногорский р-н, дер. Черная Грязь, ул. Сходненская, стр. 1,</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 141580, Московская область, Солнечногорский р-н, дер. Черная Грязь, ул. Сходненская, стр. 1</t>
+          <t>ООО «Интернет Решения», 141580, Московская область, Солнечногорский р-н, дер. Черная Грязь, ул. Сходненская, стр. 1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504445007</t>
+          <t>7704217370 / 504445007</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4195,22 +4195,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Фактический адрес: 423800, Набережные Челны, Альметьевский тракт, д. 5а</t>
+          <t>423800, Набережные Челны, Альметьевский тракт, д. 5а</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 423800, г. Набережные Челны, Альметьевский тракт, д. 5А</t>
+          <t>ООО «Интернет Решения», 423800, г. Набережные Челны, Альметьевский тракт, д. 5А</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 165045008</t>
+          <t>7704217370 / 165045008</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4247,22 +4247,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Московская, р-н Раменский, д. Нижнее Велино, ш. Старо-Рязанское, корпус 2, стр. 2</t>
+          <t>обл. Московская, р-н Раменский, д. Нижнее Велино, ш. Старо-Рязанское, корпус 2, стр. 2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Московская, р-н Раменский, д. Нижнее Велино, ш. Старо-Рязанское, корпус 2, стр. 2</t>
+          <t>ООО «Интернет Решения», обл. Московская, р-н Раменский, д. Нижнее Велино, ш. Старо-Рязанское, корпус 2, стр. 2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 504045006</t>
+          <t>7704217370 / 504045006</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4299,22 +4299,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Фактический адрес: 622000, обл. Свердловская, г. Нижний Тагил, Восточное шоссе, д. 17а</t>
+          <t>622000, обл. Свердловская, г. Нижний Тагил, Восточное шоссе, д. 17а</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 62200, обл. Свердловская, г. Нижний Тагил, ш. Восточное, д. 17А</t>
+          <t>ООО «Интернет Решения», 62200, обл. Свердловская, г. Нижний Тагил, ш. Восточное, д. 17А</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 662345005</t>
+          <t>7704217370 / 662345005</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4351,22 +4351,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Новокузнецк, ул. Автотранспортная, д. 3, к. 2</t>
+          <t>г. Новокузнецк, ул. Автотранспортная, д. 3, к. 2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Новокузнецк, ул. Автотранспортная, д. 3, к. 2</t>
+          <t>ООО «Интернет Решения», г. Новокузнецк, ул. Автотранспортная, д. 3, к. 2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 425345004</t>
+          <t>7704217370 / 425345004</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4403,22 +4403,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Фактический адрес: Чувашская Республика, г. Новочебоксарск, ул. Коммунальная, влд. 22</t>
+          <t>Чувашская Республика, г. Новочебоксарск, ул. Коммунальная, влд. 22</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Чувашская Республика, г. Новочебоксарск, ул. Коммунальная, влд. 22</t>
+          <t>ООО «Интернет Решения», Чувашская Республика, г. Новочебоксарск, ул. Коммунальная, влд. 22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 210045001</t>
+          <t>7704217370 / 210045001</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4455,22 +4455,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Новый Уренгой, ул. Таежная, д. 204 / 12, западная промзона, панель Е</t>
+          <t>г. Новый Уренгой, ул. Таежная, д. 204 / 12, западная промзона, панель Е</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Новый Уренгой, ул. Таежная, д. 204 / 12</t>
+          <t>ООО «Интернет Решения», г. Новый Уренгой, ул. Таежная, д. 204 / 12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 890445001</t>
+          <t>7704217370 / 890445001</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4507,22 +4507,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Омск, ул. 2-я Казахстанская, д. 46</t>
+          <t>г. Омск, ул. 2-я Казахстанская, д. 46</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Омск, ул. 2-я Казахстанская, д. 46</t>
+          <t>ООО «Интернет Решения», г. Омск, ул. 2-я Казахстанская, д. 46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 550745007</t>
+          <t>7704217370 / 550745007</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4559,22 +4559,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Оренбург, ул. Базовая, д. 17А</t>
+          <t>г. Оренбург, ул. Базовая, д. 17А</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Оренбург, ул. Базовая, д. 17А</t>
+          <t>ООО «Интернет Решения», г. Оренбург, ул. Базовая, д. 17А</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 560945003</t>
+          <t>7704217370 / 560945003</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Орёл, пер. Южный, д. 18</t>
+          <t>г. Орёл, пер. Южный, д. 18</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Орёл, пер. Южный, д. 18</t>
+          <t>ООО «Интернет Решения», г. Орёл, пер. Южный, д. 18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 575145001</t>
+          <t>7704217370 / 575145001</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Санкт-Петербург, посёлок Шушары, Московское шоссе, д. 145, стр. 10 (вход для кроссдок поставок между 53 и 54 воротами)</t>
+          <t>г. Санкт-Петербург, посёлок Шушары, Московское шоссе, д. 145, стр. 10 (вход для кроссдок поставок между 53 и 54 воротами)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Санкт-Петербург, посёлок Шушары, Московское шоссе, д. 145, стр. 10</t>
+          <t>ООО «Интернет Решения», г. Санкт-Петербург, посёлок Шушары, Московское шоссе, д. 145, стр. 10</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 781745004</t>
+          <t>7704217370 / 781745004</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4715,22 +4715,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Фактический адрес: ​194362, г. Санкт-Петербург, пос. Парголово, ш. Выборгское, д. 503 корп. 3, стр. 1</t>
+          <t>​194362, г. Санкт-Петербург, пос. Парголово, ш. Выборгское, д. 503 корп. 3, стр. 1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 194362, г. Санкт-Петербург, пос. Парголово, ш. Выборгское, д. 503 корп. 3, стр. 1</t>
+          <t>ООО «Интернет Решения», 194362, г. Санкт-Петербург, пос. Парголово, ш. Выборгское, д. 503 корп. 3, стр. 1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 780245020</t>
+          <t>7704217370 / 780245020</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4767,22 +4767,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Фактический адрес: Россия, обл. Пензенская, г. Пенза, ул. Совхозная, д. 15</t>
+          <t>Россия, обл. Пензенская, г. Пенза, ул. Совхозная, д. 15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Россия, обл. Пензенская, г. Пенза, ул. Совхозная, д. 15</t>
+          <t>ООО «Интернет Решения», Россия, обл. Пензенская, г. Пенза, ул. Совхозная, д. 15</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 583545002</t>
+          <t>7704217370 / 583545002</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4819,22 +4819,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Пермь, ул. Деревообделочная, д. 6а</t>
+          <t>г. Пермь, ул. Деревообделочная, д. 6а</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Пермь, ул. Деревообделочная, д. 6а</t>
+          <t>ООО «Интернет Решения», г. Пермь, ул. Деревообделочная, д. 6а</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 590345002</t>
+          <t>7704217370 / 590345002</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Фактический адрес: 185013, респ. Карелия, г. Петрозаводск, ш. Пряжинское, д. 10</t>
+          <t>185013, респ. Карелия, г. Петрозаводск, ш. Пряжинское, д. 10</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 185001, респ. Карелия, г. Петрозаводск, ш. Пряжинское, д. 10</t>
+          <t>ООО «Интернет Решения», 185001, респ. Карелия, г. Петрозаводск, ш. Пряжинское, д. 10</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 100145009</t>
+          <t>7704217370 / 100145009</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4923,22 +4923,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Псков, ул. Генерала Маргелова д. 47А</t>
+          <t>г. Псков, ул. Генерала Маргелова д. 47А</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Псков, ул. Генерала Маргелова д. 47</t>
+          <t>ООО «Интернет Решения», г. Псков, ул. Генерала Маргелова д. 47</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 600045002</t>
+          <t>7704217370 / 600045002</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4975,22 +4975,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Рязань, 4-ый проезд Добролюбова, д. 1</t>
+          <t>г. Рязань, 4-ый проезд Добролюбова, д. 1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Рязань, 4-ый проезд Добролюбова, д. 1</t>
+          <t>ООО «Интернет Решения», г. Рязань, 4-ый проезд Добролюбова, д. 1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 623045004</t>
+          <t>7704217370 / 623045004</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5027,22 +5027,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Салават ул. Первомайская 64б</t>
+          <t>г. Салават ул. Первомайская 64б</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Салават ул. Первомайская 64б</t>
+          <t>ООО «Интернет Решения», г. Салават ул. Первомайская 64б</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 26645005</t>
+          <t>7704217370 / 26645005</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Фактический адрес: Самарская область, Волжский район, с. Преображенка, ул. Индустриальная 1Б/2</t>
+          <t>Самарская область, Волжский район, с. Преображенка, ул. Индустриальная 1Б/2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Самарская область, Волжский район, с. Преображенка, ул. Индустриальная 1Б/2</t>
+          <t>ООО «Интернет Решения», Самарская область, Волжский район, с. Преображенка, ул. Индустриальная 1Б/2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 633045007</t>
+          <t>7704217370 / 633045007</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5131,22 +5131,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Фактический адрес: Саратовская область, г. Саратов, Станция Трофимовский-2, стр. 7</t>
+          <t>Саратовская область, г. Саратов, Станция Трофимовский-2, стр. 7</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Саратовская область, г. Саратов, ул. Трофимовская, д. 30, стр. 1</t>
+          <t>ООО «Интернет Решения», Саратовская область, г. Саратов, ул. Трофимовская, д. 30, стр. 1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 645345004</t>
+          <t>7704217370 / 645345004</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5183,22 +5183,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Смоленск, ул. Индустриальная, д. 4</t>
+          <t>г. Смоленск, ул. Индустриальная, д. 4</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Смоленск, ул. Индустриальная, д. 4, стр. 1</t>
+          <t>ООО «Интернет Решения», г. Смоленск, ул. Индустриальная, д. 4, стр. 1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 673245007</t>
+          <t>7704217370 / 673245007</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5235,22 +5235,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Фактический адрес: Краснодарский край, гор. округ Сочи, Барановское шоссе 2/2</t>
+          <t>Краснодарский край, гор. округ Сочи, Барановское шоссе 2/2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Краснодарский край, гор. округ Сочи, Барановское шоссе 2/2</t>
+          <t>ООО «Интернет Решения», Краснодарский край, гор. округ Сочи, Барановское шоссе 2/2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 236645016</t>
+          <t>7704217370 / 236645016</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5287,22 +5287,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Ставрополь, ул. Ракитная, д. 7</t>
+          <t>г. Ставрополь, ул. Ракитная, д. 7</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Ставрополь, ул. Ракитная, д. 7</t>
+          <t>ООО «Интернет Решения», г. Ставрополь, ул. Ракитная, д. 7</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 263445004</t>
+          <t>7704217370 / 263445004</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5339,22 +5339,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Сургут, ул. Нефтеюганское шоссе, д. 22/2</t>
+          <t>г. Сургут, ул. Нефтеюганское шоссе, д. 22/2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 628426, Ханты-Мансийский Автономный округ — Югра АО, г. Сургут, ул. Нефтеюганское шоссе, д. 22/2</t>
+          <t>ООО «Интернет Решения», 628426, Ханты-Мансийский Автономный округ — Югра АО, г. Сургут, ул. Нефтеюганское шоссе, д. 22/2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 860245003</t>
+          <t>7704217370 / 860245003</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5391,22 +5391,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Фактический адрес: Тамбовская обл., г. Тамбов, ул. Магистральная, д. 45, стр.1</t>
+          <t>Тамбовская обл., г. Тамбов, ул. Магистральная, д. 45, стр.1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Тамбовская обл., г. Тамбов, ул. Магистральная, д. 45, стр.1</t>
+          <t>ООО «Интернет Решения», Тамбовская обл., г. Тамбов, ул. Магистральная, д. 45, стр.1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 682945008</t>
+          <t>7704217370 / 682945008</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5443,22 +5443,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Фактический адрес: 445000, обл. Самарская, г. Тольятти, ул. Магистральная, д. 15</t>
+          <t>445000, обл. Самарская, г. Тольятти, ул. Магистральная, д. 15</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 445000, обл. Самарская, г. Тольятти, ул. Магистральная, д. 15</t>
+          <t>ООО «Интернет Решения», 445000, обл. Самарская, г. Тольятти, ул. Магистральная, д. 15</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 632445006</t>
+          <t>7704217370 / 632445006</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5495,22 +5495,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Томск, ул. Профсоюзная, д. 2/47</t>
+          <t>г. Томск, ул. Профсоюзная, д. 2/47</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Томск, ул. Профсоюзная, д. 2/47</t>
+          <t>ООО «Интернет Решения», г. Томск, ул. Профсоюзная, д. 2/47</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 701745014</t>
+          <t>7704217370 / 701745014</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5547,22 +5547,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Фактический адрес: 300004, обл. Тульская, г. Тула, ул. Щегловская засека, д. 31, склад «Технопарк»</t>
+          <t>300004, обл. Тульская, г. Тула, ул. Щегловская засека, д. 31, склад «Технопарк»</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 300004, обл. Тульская, г. Тула, ул. Щегловская засека, д. 31</t>
+          <t>ООО «Интернет Решения», 300004, обл. Тульская, г. Тула, ул. Щегловская засека, д. 31</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 710545002</t>
+          <t>7704217370 / 710545002</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5599,22 +5599,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Тюменская, г. Тюмень, 5-й км Старо-Тобольского тракта, д. 2а стр.2</t>
+          <t>обл. Тюменская, г. Тюмень, 5-й км Старо-Тобольского тракта, д. 2а стр.2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Тюменская, г. Тюмень, 5-й км Старо-Тобольского тракта, д. 2а стр.2</t>
+          <t>ООО «Интернет Решения», обл. Тюменская, г. Тюмень, 5-й км Старо-Тобольского тракта, д. 2а стр.2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 720345016</t>
+          <t>7704217370 / 720345016</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5651,22 +5651,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Фактический адрес: 432043, Ульяновская область, г. Ульяновск, ул. Магистральная, строение 1</t>
+          <t>432043, Ульяновская область, г. Ульяновск, ул. Магистральная, строение 1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 432072, обл. Ульяновская, г. Ульяновск, ул. Магистральная, строение 1</t>
+          <t>ООО «Интернет Решения», 432072, обл. Ульяновская, г. Ульяновск, ул. Магистральная, строение 1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 730045001</t>
+          <t>7704217370 / 730045001</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5703,22 +5703,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Фактический адрес: Республика Башкортостан, Уфимский район, посёлок Чесноковка, ул. Карьерная, д. 7, стр. 7</t>
+          <t>Республика Башкортостан, Уфимский район, посёлок Чесноковка, ул. Карьерная, д. 7, стр. 7</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», 450520, Респ. Башкортостан, р-н Уфимский, с. Чесноковка, ул. Карьерная, д. 7, стр. 5</t>
+          <t>ООО «Интернет Решения», 450520, Респ. Башкортостан, р-н Уфимский, с. Чесноковка, ул. Карьерная, д. 7, стр. 5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 24545002</t>
+          <t>7704217370 / 24545002</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5755,22 +5755,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Фактический адрес: г. Ханты-Мансийск, ул. Строителей, д 12</t>
+          <t>г. Ханты-Мансийск, ул. Строителей, д 12</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», г. Ханты-Мансийск, ул. Строителей, д 12</t>
+          <t>ООО «Интернет Решения», г. Ханты-Мансийск, ул. Строителей, д 12</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада:  7704217370 / 860145003</t>
+          <t xml:space="preserve"> 7704217370 / 860145003</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5807,22 +5807,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Фактический адрес: Челябинская обл. г. Челябинск ул. Героев Танкограда 29П</t>
+          <t>Челябинская обл. г. Челябинск ул. Героев Танкограда 29П</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Челябинская обл. г. Челябинск ул. Героев Танкограда 29П</t>
+          <t>ООО «Интернет Решения», Челябинская обл. г. Челябинск ул. Героев Танкограда 29П</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 744745009</t>
+          <t>7704217370 / 744745009</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5859,22 +5859,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Фактический адрес: Забайкальский край, г. Чита, Солдатский тупик 35</t>
+          <t>Забайкальский край, г. Чита, Солдатский тупик 35</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», Забайкальский край, г. Чита, Солдатский тупик 35</t>
+          <t>ООО «Интернет Решения», Забайкальский край, г. Чита, Солдатский тупик 35</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 750045001</t>
+          <t>7704217370 / 750045001</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5911,22 +5911,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Фактический адрес: обл. Ярославская, г. Ярославль, ул. Промышленная, д. 24</t>
+          <t>обл. Ярославская, г. Ярославль, ул. Промышленная, д. 24</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Юридический адрес для указания грузополучателя в УПД-2: ООО «Интернет Решения», обл. Ярославская, г. Ярославль, ул. Промышленная, д. 24</t>
+          <t>ООО «Интернет Решения», обл. Ярославская, г. Ярославль, ул. Промышленная, д. 24</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ИНН / КПП склада: 7704217370 / 760645004</t>
+          <t>7704217370 / 760645004</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Р/С: 40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
+          <t>40702810600014252743 в банке ЗАО «Юникредит Банк», БИК 044525545, к/с 30101810300000000545</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
